--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2908"/>
+  <dimension ref="A1:H2883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89761,10 +89761,8 @@
           <t>54.2</t>
         </is>
       </c>
-      <c r="H2811" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2811" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2812">
@@ -89791,10 +89789,8 @@
       </c>
       <c r="F2812" t="inlineStr"/>
       <c r="G2812" t="inlineStr"/>
-      <c r="H2812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2813">
@@ -89821,10 +89817,8 @@
       </c>
       <c r="F2813" t="inlineStr"/>
       <c r="G2813" t="inlineStr"/>
-      <c r="H2813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2814">
@@ -89851,10 +89845,8 @@
       </c>
       <c r="F2814" t="inlineStr"/>
       <c r="G2814" t="inlineStr"/>
-      <c r="H2814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2815">
@@ -89881,10 +89873,8 @@
       </c>
       <c r="F2815" t="inlineStr"/>
       <c r="G2815" t="inlineStr"/>
-      <c r="H2815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2816">
@@ -89911,10 +89901,8 @@
       </c>
       <c r="F2816" t="inlineStr"/>
       <c r="G2816" t="inlineStr"/>
-      <c r="H2816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2817">
@@ -89941,10 +89929,8 @@
       </c>
       <c r="F2817" t="inlineStr"/>
       <c r="G2817" t="inlineStr"/>
-      <c r="H2817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2818">
@@ -89975,10 +89961,8 @@
           <t>9.75%</t>
         </is>
       </c>
-      <c r="H2818" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2818" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2819">
@@ -90001,10 +89985,8 @@
       <c r="E2819" t="inlineStr"/>
       <c r="F2819" t="inlineStr"/>
       <c r="G2819" t="inlineStr"/>
-      <c r="H2819" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2819" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2820">
@@ -90031,10 +90013,8 @@
       </c>
       <c r="F2820" t="inlineStr"/>
       <c r="G2820" t="inlineStr"/>
-      <c r="H2820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2821">
@@ -90065,10 +90045,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H2821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2822">
@@ -90099,10 +90077,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H2822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2823">
@@ -90129,10 +90105,8 @@
       </c>
       <c r="F2823" t="inlineStr"/>
       <c r="G2823" t="inlineStr"/>
-      <c r="H2823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2824">
@@ -90155,10 +90129,8 @@
       <c r="E2824" t="inlineStr"/>
       <c r="F2824" t="inlineStr"/>
       <c r="G2824" t="inlineStr"/>
-      <c r="H2824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2825">
@@ -90185,10 +90157,8 @@
       </c>
       <c r="F2825" t="inlineStr"/>
       <c r="G2825" t="inlineStr"/>
-      <c r="H2825" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2825" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2826">
@@ -90215,10 +90185,8 @@
       </c>
       <c r="F2826" t="inlineStr"/>
       <c r="G2826" t="inlineStr"/>
-      <c r="H2826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2827">
@@ -90241,10 +90209,8 @@
       </c>
       <c r="F2827" t="inlineStr"/>
       <c r="G2827" t="inlineStr"/>
-      <c r="H2827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2828">
@@ -90267,10 +90233,8 @@
       </c>
       <c r="F2828" t="inlineStr"/>
       <c r="G2828" t="inlineStr"/>
-      <c r="H2828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2829">
@@ -90293,10 +90257,8 @@
       </c>
       <c r="F2829" t="inlineStr"/>
       <c r="G2829" t="inlineStr"/>
-      <c r="H2829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2830">
@@ -90319,10 +90281,8 @@
       </c>
       <c r="F2830" t="inlineStr"/>
       <c r="G2830" t="inlineStr"/>
-      <c r="H2830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2831">
@@ -90345,10 +90305,8 @@
       </c>
       <c r="F2831" t="inlineStr"/>
       <c r="G2831" t="inlineStr"/>
-      <c r="H2831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2832">
@@ -90371,10 +90329,8 @@
       </c>
       <c r="F2832" t="inlineStr"/>
       <c r="G2832" t="inlineStr"/>
-      <c r="H2832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2833">
@@ -90397,52 +90353,70 @@
       </c>
       <c r="F2833" t="inlineStr"/>
       <c r="G2833" t="inlineStr"/>
-      <c r="H2833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2834">
       <c r="A2834" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B2834" t="inlineStr"/>
-      <c r="C2834" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B2834" t="inlineStr">
+        <is>
+          <t>MX</t>
+        </is>
+      </c>
+      <c r="C2834" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="D2834" t="inlineStr"/>
-      <c r="E2834" t="inlineStr"/>
+      <c r="E2834" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
       <c r="F2834" t="inlineStr"/>
-      <c r="G2834" t="inlineStr"/>
-      <c r="H2834" t="inlineStr"/>
+      <c r="G2834" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="H2834" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2835">
       <c r="A2835" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2835" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2835" t="inlineStr">
         <is>
-          <t>Coincident Index PrelDEC</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2835" t="inlineStr"/>
       <c r="E2835" t="inlineStr">
         <is>
-          <t>115.4</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F2835" t="inlineStr"/>
       <c r="G2835" t="inlineStr">
         <is>
-          <t>115.9</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="H2835" t="inlineStr">
@@ -90454,29 +90428,29 @@
     <row r="2836">
       <c r="A2836" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B2836" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2836" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelDEC</t>
+          <t>Core Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2836" t="inlineStr"/>
       <c r="E2836" t="inlineStr">
         <is>
-          <t>107.5</t>
+          <t>3.65%</t>
         </is>
       </c>
       <c r="F2836" t="inlineStr"/>
       <c r="G2836" t="inlineStr">
         <is>
-          <t>108.2</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="H2836" t="inlineStr">
@@ -90488,29 +90462,29 @@
     <row r="2837">
       <c r="A2837" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2837" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2837" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Car Production MoMJAN</t>
         </is>
       </c>
       <c r="D2837" t="inlineStr"/>
       <c r="E2837" t="inlineStr">
         <is>
-          <t>$65.46B</t>
+          <t>-19.5%</t>
         </is>
       </c>
       <c r="F2837" t="inlineStr"/>
       <c r="G2837" t="inlineStr">
         <is>
-          <t>$65.0B</t>
+          <t>-5.0%</t>
         </is>
       </c>
       <c r="H2837" t="inlineStr">
@@ -90522,97 +90496,97 @@
     <row r="2838">
       <c r="A2838" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B2838" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2838" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Registrations MoMJAN</t>
         </is>
       </c>
       <c r="D2838" t="inlineStr"/>
       <c r="E2838" t="inlineStr">
         <is>
-          <t>€19.7B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F2838" t="inlineStr"/>
       <c r="G2838" t="inlineStr">
         <is>
-          <t>€ 22B</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="H2838" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2839">
       <c r="A2839" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2839" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2839" t="inlineStr">
         <is>
-          <t>Exports MoMDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2839" t="inlineStr"/>
       <c r="E2839" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F2839" t="inlineStr"/>
       <c r="G2839" t="inlineStr">
         <is>
-          <t>130%</t>
+          <t>6.8%</t>
         </is>
       </c>
       <c r="H2839" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2840">
       <c r="A2840" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2840" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2840" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Employment ChangeJAN</t>
         </is>
       </c>
       <c r="D2840" t="inlineStr"/>
       <c r="E2840" t="inlineStr">
         <is>
-          <t>1.5%</t>
+          <t>90.9K</t>
         </is>
       </c>
       <c r="F2840" t="inlineStr"/>
       <c r="G2840" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="H2840" t="inlineStr">
@@ -90624,61 +90598,65 @@
     <row r="2841">
       <c r="A2841" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2841" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2841" t="inlineStr">
         <is>
-          <t>Imports MoMDEC</t>
+          <t>Full Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2841" t="inlineStr"/>
       <c r="E2841" t="inlineStr">
         <is>
-          <t>-3.3%</t>
+          <t>57.5K</t>
         </is>
       </c>
       <c r="F2841" t="inlineStr"/>
       <c r="G2841" t="inlineStr">
         <is>
-          <t>108%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="H2841" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2842">
       <c r="A2842" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2842" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2842" t="inlineStr">
         <is>
-          <t>Halifax House Price Index MoMJAN</t>
+          <t>Part Time Employment ChgJAN</t>
         </is>
       </c>
       <c r="D2842" t="inlineStr"/>
       <c r="E2842" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>33.5K</t>
         </is>
       </c>
       <c r="F2842" t="inlineStr"/>
-      <c r="G2842" t="inlineStr"/>
+      <c r="G2842" t="inlineStr">
+        <is>
+          <t>8K</t>
+        </is>
+      </c>
       <c r="H2842" t="inlineStr">
         <is>
           <t>2</t>
@@ -90688,27 +90666,31 @@
     <row r="2843">
       <c r="A2843" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2843" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2843" t="inlineStr">
         <is>
-          <t>Halifax House Price Index YoYJAN</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2843" t="inlineStr"/>
       <c r="E2843" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F2843" t="inlineStr"/>
-      <c r="G2843" t="inlineStr"/>
+      <c r="G2843" t="inlineStr">
+        <is>
+          <t>65.0%</t>
+        </is>
+      </c>
       <c r="H2843" t="inlineStr">
         <is>
           <t>2</t>
@@ -90718,221 +90700,233 @@
     <row r="2844">
       <c r="A2844" t="inlineStr">
         <is>
-          <t>02:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2844" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2844" t="inlineStr">
         <is>
-          <t>Inflation Report</t>
+          <t>Average Hourly Wages YoYJAN</t>
         </is>
       </c>
       <c r="D2844" t="inlineStr"/>
-      <c r="E2844" t="inlineStr"/>
+      <c r="E2844" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="F2844" t="inlineStr"/>
-      <c r="G2844" t="inlineStr"/>
+      <c r="G2844" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="H2844" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2845">
       <c r="A2845" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2845" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2845" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Non Farm PayrollsJAN</t>
         </is>
       </c>
       <c r="D2845" t="inlineStr"/>
       <c r="E2845" t="inlineStr">
         <is>
-          <t>€-7.1B</t>
+          <t>256K</t>
         </is>
       </c>
       <c r="F2845" t="inlineStr"/>
       <c r="G2845" t="inlineStr">
         <is>
-          <t>€ -7.2B</t>
+          <t>205K</t>
         </is>
       </c>
       <c r="H2845" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2846">
       <c r="A2846" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2846" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2846" t="inlineStr">
         <is>
-          <t>Current AccountDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2846" t="inlineStr"/>
       <c r="E2846" t="inlineStr">
         <is>
-          <t>€-1.7B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="F2846" t="inlineStr"/>
       <c r="G2846" t="inlineStr">
         <is>
-          <t>€ -2.5B</t>
+          <t>4.1%</t>
         </is>
       </c>
       <c r="H2846" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2847">
       <c r="A2847" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2847" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2847" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Average Hourly Earnings MoMJAN</t>
         </is>
       </c>
       <c r="D2847" t="inlineStr"/>
       <c r="E2847" t="inlineStr">
         <is>
-          <t>€50.101B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2847" t="inlineStr"/>
       <c r="G2847" t="inlineStr">
         <is>
-          <t>€ 49.7B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2847" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2848">
       <c r="A2848" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2848" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2848" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Average Hourly Earnings YoYJAN</t>
         </is>
       </c>
       <c r="D2848" t="inlineStr"/>
       <c r="E2848" t="inlineStr">
         <is>
-          <t>€275.078B</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F2848" t="inlineStr"/>
-      <c r="G2848" t="inlineStr"/>
+      <c r="G2848" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="H2848" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2849">
       <c r="A2849" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2849" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2849" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>Participation RateJAN</t>
         </is>
       </c>
       <c r="D2849" t="inlineStr"/>
       <c r="E2849" t="inlineStr">
         <is>
-          <t>€57.186B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="F2849" t="inlineStr"/>
       <c r="G2849" t="inlineStr">
         <is>
-          <t>€ 56.9B</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="H2849" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2850">
       <c r="A2850" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2850" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2850" t="inlineStr">
         <is>
-          <t>Private Non Farm Payrolls QoQ PrelQ4</t>
+          <t>Average Weekly HoursJAN</t>
         </is>
       </c>
       <c r="D2850" t="inlineStr"/>
       <c r="E2850" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="F2850" t="inlineStr"/>
       <c r="G2850" t="inlineStr">
         <is>
-          <t>20200%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H2850" t="inlineStr">
@@ -90944,29 +90938,29 @@
     <row r="2851">
       <c r="A2851" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2851" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2851" t="inlineStr">
         <is>
-          <t>Industrial Production YoYDEC</t>
+          <t>Government PayrollsJAN</t>
         </is>
       </c>
       <c r="D2851" t="inlineStr"/>
       <c r="E2851" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F2851" t="inlineStr"/>
       <c r="G2851" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>25K</t>
         </is>
       </c>
       <c r="H2851" t="inlineStr">
@@ -90978,27 +90972,31 @@
     <row r="2852">
       <c r="A2852" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2852" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2852" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="D2852" t="inlineStr"/>
       <c r="E2852" t="inlineStr">
         <is>
-          <t>S$506.7B</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="F2852" t="inlineStr"/>
-      <c r="G2852" t="inlineStr"/>
+      <c r="G2852" t="inlineStr">
+        <is>
+          <t>-5K</t>
+        </is>
+      </c>
       <c r="H2852" t="inlineStr">
         <is>
           <t>3</t>
@@ -91008,27 +91006,31 @@
     <row r="2853">
       <c r="A2853" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2853" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2853" t="inlineStr">
         <is>
-          <t>FAO Food Price IndexJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="D2853" t="inlineStr"/>
       <c r="E2853" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="F2853" t="inlineStr"/>
-      <c r="G2853" t="inlineStr"/>
+      <c r="G2853" t="inlineStr">
+        <is>
+          <t>180K</t>
+        </is>
+      </c>
       <c r="H2853" t="inlineStr">
         <is>
           <t>3</t>
@@ -91038,27 +91040,31 @@
     <row r="2854">
       <c r="A2854" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B2854" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2854" t="inlineStr">
         <is>
-          <t>BBA Mortgage RateJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2854" t="inlineStr"/>
       <c r="E2854" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="F2854" t="inlineStr"/>
-      <c r="G2854" t="inlineStr"/>
+      <c r="G2854" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="H2854" t="inlineStr">
         <is>
           <t>3</t>
@@ -91068,23 +91074,31 @@
     <row r="2855">
       <c r="A2855" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B2855" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2855" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/31</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2855" t="inlineStr"/>
-      <c r="E2855" t="inlineStr"/>
+      <c r="E2855" t="inlineStr">
+        <is>
+          <t>$609.1B</t>
+        </is>
+      </c>
       <c r="F2855" t="inlineStr"/>
-      <c r="G2855" t="inlineStr"/>
+      <c r="G2855" t="inlineStr">
+        <is>
+          <t>$607.0B</t>
+        </is>
+      </c>
       <c r="H2855" t="inlineStr">
         <is>
           <t>3</t>
@@ -91094,165 +91108,161 @@
     <row r="2856">
       <c r="A2856" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B2856" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2856" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Treasury Cash BalanceJAN</t>
         </is>
       </c>
       <c r="D2856" t="inlineStr"/>
       <c r="E2856" t="inlineStr">
         <is>
-          <t>0.52%</t>
+          <t>TRY-323.9B</t>
         </is>
       </c>
       <c r="F2856" t="inlineStr"/>
-      <c r="G2856" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2856" t="inlineStr"/>
       <c r="H2856" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2857">
       <c r="A2857" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2857" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2857" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Full Year GDP Growth2024</t>
         </is>
       </c>
       <c r="D2857" t="inlineStr"/>
       <c r="E2857" t="inlineStr">
         <is>
-          <t>4.83%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F2857" t="inlineStr"/>
       <c r="G2857" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H2857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2858" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2858" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="D2858" t="inlineStr"/>
       <c r="E2858" t="inlineStr">
         <is>
-          <t>0.38%</t>
+          <t>71.1</t>
         </is>
       </c>
       <c r="F2858" t="inlineStr"/>
       <c r="G2858" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H2858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2859">
       <c r="A2859" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2859" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2859" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2859" t="inlineStr"/>
       <c r="E2859" t="inlineStr">
         <is>
-          <t>4.21%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2859" t="inlineStr"/>
       <c r="G2859" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2859" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2860" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2860" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2860" t="inlineStr"/>
       <c r="E2860" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>69.3</t>
         </is>
       </c>
       <c r="F2860" t="inlineStr"/>
       <c r="G2860" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="H2860" t="inlineStr">
@@ -91264,29 +91274,29 @@
     <row r="2861">
       <c r="A2861" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2861" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2861" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="D2861" t="inlineStr"/>
       <c r="E2861" t="inlineStr">
         <is>
-          <t>3.65%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="F2861" t="inlineStr"/>
       <c r="G2861" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="H2861" t="inlineStr">
@@ -91298,29 +91308,29 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2862" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2862" t="inlineStr">
         <is>
-          <t>Car Production MoMJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="D2862" t="inlineStr"/>
       <c r="E2862" t="inlineStr">
         <is>
-          <t>-19.5%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2862" t="inlineStr"/>
       <c r="G2862" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="H2862" t="inlineStr">
@@ -91332,29 +91342,33 @@
     <row r="2863">
       <c r="A2863" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B2863" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2863" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="D2863" t="inlineStr"/>
       <c r="E2863" t="inlineStr">
         <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F2863" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="F2863" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G2863" t="inlineStr">
         <is>
-          <t>-1.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="H2863" t="inlineStr">
@@ -91366,199 +91380,179 @@
     <row r="2864">
       <c r="A2864" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2864" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2864" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2864" t="inlineStr"/>
       <c r="E2864" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>$4.8B</t>
         </is>
       </c>
       <c r="F2864" t="inlineStr"/>
       <c r="G2864" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>$4.1B</t>
         </is>
       </c>
       <c r="H2864" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2865" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2865" t="inlineStr">
         <is>
-          <t>Employment ChangeJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="D2865" t="inlineStr"/>
-      <c r="E2865" t="inlineStr">
-        <is>
-          <t>90.9K</t>
-        </is>
-      </c>
+      <c r="E2865" t="inlineStr"/>
       <c r="F2865" t="inlineStr"/>
-      <c r="G2865" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+      <c r="G2865" t="inlineStr"/>
       <c r="H2865" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2866">
       <c r="A2866" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B2866" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2866" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="D2866" t="inlineStr"/>
-      <c r="E2866" t="inlineStr">
-        <is>
-          <t>57.5K</t>
-        </is>
-      </c>
+      <c r="E2866" t="inlineStr"/>
       <c r="F2866" t="inlineStr"/>
-      <c r="G2866" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
+      <c r="G2866" t="inlineStr"/>
       <c r="H2866" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B2867" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C2867" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgJAN</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="D2867" t="inlineStr"/>
       <c r="E2867" t="inlineStr">
         <is>
-          <t>33.5K</t>
+          <t>-1.7%</t>
         </is>
       </c>
       <c r="F2867" t="inlineStr"/>
       <c r="G2867" t="inlineStr">
         <is>
-          <t>8K</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="H2867" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2868">
       <c r="A2868" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B2868" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2868" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="D2868" t="inlineStr"/>
       <c r="E2868" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="F2868" t="inlineStr"/>
       <c r="G2868" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="H2868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2869">
-      <c r="A2869" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2869" t="inlineStr"/>
       <c r="B2869" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2869" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYJAN</t>
+          <t>Foreign Exchange ReservesJAN</t>
         </is>
       </c>
       <c r="D2869" t="inlineStr"/>
       <c r="E2869" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.202T</t>
         </is>
       </c>
       <c r="F2869" t="inlineStr"/>
       <c r="G2869" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>$3.3T</t>
         </is>
       </c>
       <c r="H2869" t="inlineStr">
@@ -91568,79 +91562,59 @@
       </c>
     </row>
     <row r="2870">
-      <c r="A2870" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2870" t="inlineStr"/>
       <c r="B2870" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2870" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>SACCI Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D2870" t="inlineStr"/>
-      <c r="E2870" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
+      <c r="E2870" t="inlineStr"/>
       <c r="F2870" t="inlineStr"/>
-      <c r="G2870" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="G2870" t="inlineStr"/>
       <c r="H2870" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2871">
-      <c r="A2871" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2871" t="inlineStr"/>
       <c r="B2871" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2871" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>SACCI Business ConfidenceDEC</t>
         </is>
       </c>
       <c r="D2871" t="inlineStr"/>
       <c r="E2871" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>118.1</t>
         </is>
       </c>
       <c r="F2871" t="inlineStr"/>
       <c r="G2871" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>116</t>
         </is>
       </c>
       <c r="H2871" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2872">
-      <c r="A2872" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2872" t="inlineStr"/>
       <c r="B2872" t="inlineStr">
         <is>
           <t>US</t>
@@ -91648,33 +91622,25 @@
       </c>
       <c r="C2872" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2872" t="inlineStr"/>
       <c r="E2872" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F2872" t="inlineStr"/>
-      <c r="G2872" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G2872" t="inlineStr"/>
       <c r="H2872" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2873">
-      <c r="A2873" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A2873" t="inlineStr"/>
       <c r="B2873" t="inlineStr">
         <is>
           <t>US</t>
@@ -91682,259 +91648,211 @@
       </c>
       <c r="C2873" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2873" t="inlineStr"/>
       <c r="E2873" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2873" t="inlineStr"/>
-      <c r="G2873" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2873" t="inlineStr"/>
       <c r="H2873" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2874">
       <c r="A2874" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2874" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2874" t="inlineStr">
-        <is>
-          <t>Participation RateJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B2874" t="inlineStr"/>
+      <c r="C2874" t="inlineStr"/>
       <c r="D2874" t="inlineStr"/>
-      <c r="E2874" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="E2874" t="inlineStr"/>
       <c r="F2874" t="inlineStr"/>
-      <c r="G2874" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="H2874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G2874" t="inlineStr"/>
+      <c r="H2874" t="inlineStr"/>
     </row>
     <row r="2875">
       <c r="A2875" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2875" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2875" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="D2875" t="inlineStr"/>
       <c r="E2875" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2875" t="inlineStr"/>
       <c r="G2875" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H2875" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2876">
       <c r="A2876" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2876" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2876" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="D2876" t="inlineStr"/>
       <c r="E2876" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F2876" t="inlineStr"/>
       <c r="G2876" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H2876" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2877">
       <c r="A2877" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B2877" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2877" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="D2877" t="inlineStr"/>
       <c r="E2877" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>-2.3%</t>
         </is>
       </c>
       <c r="F2877" t="inlineStr"/>
       <c r="G2877" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>-2.4%</t>
         </is>
       </c>
       <c r="H2877" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B2878" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2878" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B2878" t="inlineStr"/>
+      <c r="C2878" t="inlineStr"/>
       <c r="D2878" t="inlineStr"/>
-      <c r="E2878" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
+      <c r="E2878" t="inlineStr"/>
       <c r="F2878" t="inlineStr"/>
-      <c r="G2878" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
-      <c r="H2878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2878" t="inlineStr"/>
+      <c r="H2878" t="inlineStr"/>
     </row>
     <row r="2879">
       <c r="A2879" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2879" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2879" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Current AccountDEC</t>
         </is>
       </c>
       <c r="D2879" t="inlineStr"/>
       <c r="E2879" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥3352.5B</t>
         </is>
       </c>
       <c r="F2879" t="inlineStr"/>
       <c r="G2879" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>¥ 1840B</t>
         </is>
       </c>
       <c r="H2879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2880">
       <c r="A2880" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B2880" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2880" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN</t>
+          <t>Bank Lending YoYJAN</t>
         </is>
       </c>
       <c r="D2880" t="inlineStr"/>
       <c r="E2880" t="inlineStr">
         <is>
-          <t>$609.1B</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="F2880" t="inlineStr"/>
-      <c r="G2880" t="inlineStr">
-        <is>
-          <t>$607.0B</t>
-        </is>
-      </c>
+      <c r="G2880" t="inlineStr"/>
       <c r="H2880" t="inlineStr">
         <is>
           <t>3</t>
@@ -91944,27 +91862,27 @@
     <row r="2881">
       <c r="A2881" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2881" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2881" t="inlineStr">
         <is>
-          <t>Treasury Cash BalanceJAN</t>
+          <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2881" t="inlineStr"/>
-      <c r="E2881" t="inlineStr">
-        <is>
-          <t>TRY-323.9B</t>
-        </is>
-      </c>
+      <c r="E2881" t="inlineStr"/>
       <c r="F2881" t="inlineStr"/>
-      <c r="G2881" t="inlineStr"/>
+      <c r="G2881" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
       <c r="H2881" t="inlineStr">
         <is>
           <t>3</t>
@@ -91974,31 +91892,23 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B2882" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2882" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2024</t>
+          <t>Private House Approvals MoM FinalDEC</t>
         </is>
       </c>
       <c r="D2882" t="inlineStr"/>
-      <c r="E2882" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="E2882" t="inlineStr"/>
       <c r="F2882" t="inlineStr"/>
-      <c r="G2882" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="G2882" t="inlineStr"/>
       <c r="H2882" t="inlineStr">
         <is>
           <t>3</t>
@@ -92006,772 +91916,26 @@
       </c>
     </row>
     <row r="2883">
-      <c r="A2883" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A2883" t="inlineStr"/>
       <c r="B2883" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C2883" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Motorbike Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2883" t="inlineStr"/>
       <c r="E2883" t="inlineStr">
         <is>
-          <t>71.1</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="F2883" t="inlineStr"/>
-      <c r="G2883" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+      <c r="G2883" t="inlineStr"/>
       <c r="H2883" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2884">
-      <c r="A2884" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2884" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2884" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2884" t="inlineStr"/>
-      <c r="E2884" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F2884" t="inlineStr"/>
-      <c r="G2884" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="H2884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2885">
-      <c r="A2885" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2885" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2885" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2885" t="inlineStr"/>
-      <c r="E2885" t="inlineStr">
-        <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="F2885" t="inlineStr"/>
-      <c r="G2885" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
-      <c r="H2885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2886">
-      <c r="A2886" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2886" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2886" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2886" t="inlineStr"/>
-      <c r="E2886" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="F2886" t="inlineStr"/>
-      <c r="G2886" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
-      <c r="H2886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2887">
-      <c r="A2887" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2887" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2887" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
-        </is>
-      </c>
-      <c r="D2887" t="inlineStr"/>
-      <c r="E2887" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2887" t="inlineStr"/>
-      <c r="G2887" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="H2887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2888">
-      <c r="A2888" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B2888" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2888" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2888" t="inlineStr"/>
-      <c r="E2888" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2888" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G2888" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="H2888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2889">
-      <c r="A2889" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2889" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C2889" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2889" t="inlineStr"/>
-      <c r="E2889" t="inlineStr">
-        <is>
-          <t>$4.8B</t>
-        </is>
-      </c>
-      <c r="F2889" t="inlineStr"/>
-      <c r="G2889" t="inlineStr">
-        <is>
-          <t>$4.1B</t>
-        </is>
-      </c>
-      <c r="H2889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2890">
-      <c r="A2890" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2890" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2890" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2890" t="inlineStr"/>
-      <c r="E2890" t="inlineStr"/>
-      <c r="F2890" t="inlineStr"/>
-      <c r="G2890" t="inlineStr"/>
-      <c r="H2890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2891">
-      <c r="A2891" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B2891" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2891" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
-        </is>
-      </c>
-      <c r="D2891" t="inlineStr"/>
-      <c r="E2891" t="inlineStr"/>
-      <c r="F2891" t="inlineStr"/>
-      <c r="G2891" t="inlineStr"/>
-      <c r="H2891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2892">
-      <c r="A2892" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B2892" t="inlineStr">
-        <is>
-          <t>AR</t>
-        </is>
-      </c>
-      <c r="C2892" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2892" t="inlineStr"/>
-      <c r="E2892" t="inlineStr">
-        <is>
-          <t>-1.7%</t>
-        </is>
-      </c>
-      <c r="F2892" t="inlineStr"/>
-      <c r="G2892" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="H2892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2893">
-      <c r="A2893" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B2893" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2893" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeDEC</t>
-        </is>
-      </c>
-      <c r="D2893" t="inlineStr"/>
-      <c r="E2893" t="inlineStr">
-        <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="F2893" t="inlineStr"/>
-      <c r="G2893" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
-      <c r="H2893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2894">
-      <c r="A2894" t="inlineStr"/>
-      <c r="B2894" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2894" t="inlineStr">
-        <is>
-          <t>Foreign Exchange ReservesJAN</t>
-        </is>
-      </c>
-      <c r="D2894" t="inlineStr"/>
-      <c r="E2894" t="inlineStr">
-        <is>
-          <t>$3.202T</t>
-        </is>
-      </c>
-      <c r="F2894" t="inlineStr"/>
-      <c r="G2894" t="inlineStr">
-        <is>
-          <t>$3.3T</t>
-        </is>
-      </c>
-      <c r="H2894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2895">
-      <c r="A2895" t="inlineStr"/>
-      <c r="B2895" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2895" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D2895" t="inlineStr"/>
-      <c r="E2895" t="inlineStr"/>
-      <c r="F2895" t="inlineStr"/>
-      <c r="G2895" t="inlineStr"/>
-      <c r="H2895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2896">
-      <c r="A2896" t="inlineStr"/>
-      <c r="B2896" t="inlineStr">
-        <is>
-          <t>ZA</t>
-        </is>
-      </c>
-      <c r="C2896" t="inlineStr">
-        <is>
-          <t>SACCI Business ConfidenceDEC</t>
-        </is>
-      </c>
-      <c r="D2896" t="inlineStr"/>
-      <c r="E2896" t="inlineStr">
-        <is>
-          <t>118.1</t>
-        </is>
-      </c>
-      <c r="F2896" t="inlineStr"/>
-      <c r="G2896" t="inlineStr">
-        <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="H2896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2897">
-      <c r="A2897" t="inlineStr"/>
-      <c r="B2897" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2897" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2897" t="inlineStr"/>
-      <c r="E2897" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F2897" t="inlineStr"/>
-      <c r="G2897" t="inlineStr"/>
-      <c r="H2897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2898">
-      <c r="A2898" t="inlineStr"/>
-      <c r="B2898" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2898" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2898" t="inlineStr"/>
-      <c r="E2898" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2898" t="inlineStr"/>
-      <c r="G2898" t="inlineStr"/>
-      <c r="H2898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2899">
-      <c r="A2899" t="inlineStr">
-        <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B2899" t="inlineStr"/>
-      <c r="C2899" t="inlineStr"/>
-      <c r="D2899" t="inlineStr"/>
-      <c r="E2899" t="inlineStr"/>
-      <c r="F2899" t="inlineStr"/>
-      <c r="G2899" t="inlineStr"/>
-      <c r="H2899" t="inlineStr"/>
-    </row>
-    <row r="2900">
-      <c r="A2900" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2900" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2900" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2900" t="inlineStr"/>
-      <c r="E2900" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2900" t="inlineStr"/>
-      <c r="G2900" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2901">
-      <c r="A2901" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2901" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2901" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2901" t="inlineStr"/>
-      <c r="E2901" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F2901" t="inlineStr"/>
-      <c r="G2901" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2902">
-      <c r="A2902" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B2902" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C2902" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2902" t="inlineStr"/>
-      <c r="E2902" t="inlineStr">
-        <is>
-          <t>-2.3%</t>
-        </is>
-      </c>
-      <c r="F2902" t="inlineStr"/>
-      <c r="G2902" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="H2902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2903">
-      <c r="A2903" t="inlineStr">
-        <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B2903" t="inlineStr"/>
-      <c r="C2903" t="inlineStr"/>
-      <c r="D2903" t="inlineStr"/>
-      <c r="E2903" t="inlineStr"/>
-      <c r="F2903" t="inlineStr"/>
-      <c r="G2903" t="inlineStr"/>
-      <c r="H2903" t="inlineStr"/>
-    </row>
-    <row r="2904">
-      <c r="A2904" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2904" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2904" t="inlineStr">
-        <is>
-          <t>Current AccountDEC</t>
-        </is>
-      </c>
-      <c r="D2904" t="inlineStr"/>
-      <c r="E2904" t="inlineStr">
-        <is>
-          <t>¥3352.5B</t>
-        </is>
-      </c>
-      <c r="F2904" t="inlineStr"/>
-      <c r="G2904" t="inlineStr">
-        <is>
-          <t>¥ 1840B</t>
-        </is>
-      </c>
-      <c r="H2904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2905">
-      <c r="A2905" t="inlineStr">
-        <is>
-          <t>06:50 PM</t>
-        </is>
-      </c>
-      <c r="B2905" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C2905" t="inlineStr">
-        <is>
-          <t>Bank Lending YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2905" t="inlineStr"/>
-      <c r="E2905" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="F2905" t="inlineStr"/>
-      <c r="G2905" t="inlineStr"/>
-      <c r="H2905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2906">
-      <c r="A2906" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2906" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2906" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2906" t="inlineStr"/>
-      <c r="E2906" t="inlineStr"/>
-      <c r="F2906" t="inlineStr"/>
-      <c r="G2906" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="H2906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2907">
-      <c r="A2907" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B2907" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2907" t="inlineStr">
-        <is>
-          <t>Private House Approvals MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D2907" t="inlineStr"/>
-      <c r="E2907" t="inlineStr"/>
-      <c r="F2907" t="inlineStr"/>
-      <c r="G2907" t="inlineStr"/>
-      <c r="H2907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2908">
-      <c r="A2908" t="inlineStr"/>
-      <c r="B2908" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C2908" t="inlineStr">
-        <is>
-          <t>Motorbike Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2908" t="inlineStr"/>
-      <c r="E2908" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="F2908" t="inlineStr"/>
-      <c r="G2908" t="inlineStr"/>
-      <c r="H2908" t="inlineStr">
         <is>
           <t>3</t>
         </is>
